--- a/Docs/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dragos\Downloads\CheckLists\CheckLists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VVSS_Tasks\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A4944D-0AE6-4BC3-885A-053A77FB343B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2431BEBE-C16B-4D32-AFA2-75DC878CB4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="650" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="76">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -71,15 +71,6 @@
     <t xml:space="preserve">Author Name: </t>
   </si>
   <si>
-    <t>Popescu Ionel</t>
-  </si>
-  <si>
-    <t>Georgescu Anca</t>
-  </si>
-  <si>
-    <t>Firicescu George</t>
-  </si>
-  <si>
     <t>Requirements Document</t>
   </si>
   <si>
@@ -158,13 +149,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Adaugarea unor Custom Exceptions si error handling adecvat pentru fiecare metoda, cu custom error messages</t>
-  </si>
-  <si>
     <t>A06</t>
-  </si>
-  <si>
-    <t>Folosirea unor Desing Patterns precum Observer ar fi de folos in vizualizarea update-urilor si a modificarilor aduse anumitor taskuri.</t>
   </si>
   <si>
     <t>Constants should be named consistently to communicate intent and improve maintainability. Rename your constants to follow your project’s naming convention to address this issue.</t>
@@ -232,6 +217,60 @@
   </si>
   <si>
     <t>SonnerLint</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>DateService.java(line31)</t>
+  </si>
+  <si>
+    <t>Add validation for input and exeption handler</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>Task.java(line 103)</t>
+  </si>
+  <si>
+    <t>Instead of start should be end</t>
+  </si>
+  <si>
+    <t>21.03.2024</t>
+  </si>
+  <si>
+    <t>Reviewer Name: Morozan Dragos</t>
+  </si>
+  <si>
+    <t>Review date: 21.03.2024</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>Pentru constante trebuie sa se foloseasca nume formate doar din litere mari</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>Nu se dau detalii despre aplicatie, ce functii trebuie sa aiba</t>
+  </si>
+  <si>
+    <t>Adaugarea exceptilor in corpul functiei.Adaugarea unor Custom Exceptions si error handling adecvat pentru fiecare metoda, cu custom error messages</t>
+  </si>
+  <si>
+    <t>Nu sunt folosite design pattern-uri</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>Notificator.java(42)</t>
+  </si>
+  <si>
+    <t>Se poate scrie totul in acelasi if. Se poate condensa</t>
   </si>
 </sst>
 </file>
@@ -459,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,6 +528,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -499,12 +546,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -531,14 +572,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,20 +881,20 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="12.265625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.265625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.86328125" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="6"/>
+    <col min="10" max="10" width="14.3984375" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.86328125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
@@ -869,33 +902,33 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="H1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="J3" s="17">
         <v>234</v>
@@ -905,15 +938,15 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="24"/>
+      <c r="D4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="30"/>
       <c r="H4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
@@ -923,12 +956,12 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="26"/>
+      <c r="D5" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -938,15 +971,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -962,43 +999,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30">
+    <row r="10" spans="1:10" ht="28.5">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42.75">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.5">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
@@ -1147,19 +1190,19 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="12.265625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.265625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.86328125" style="6"/>
     <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="10" max="16384" width="8.86328125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
@@ -1167,33 +1210,33 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="H1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="J3" s="17">
         <v>234</v>
@@ -1203,15 +1246,15 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="27"/>
+      <c r="D4" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
@@ -1221,12 +1264,12 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="29"/>
+      <c r="D5" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1236,15 +1279,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1260,33 +1307,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45">
+    <row r="10" spans="1:10" ht="57">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="60">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.5">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1294,9 +1341,15 @@
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
@@ -1455,19 +1508,19 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="12.265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="5" max="5" width="41.3984375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.86328125" style="6"/>
+    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.86328125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
@@ -1475,35 +1528,35 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="H1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="H3" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="38">
+      <c r="H3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="24">
         <v>234</v>
       </c>
     </row>
@@ -1511,17 +1564,17 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="H4" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="40">
+      <c r="D4" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="34"/>
+      <c r="H4" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="26">
         <v>234</v>
       </c>
     </row>
@@ -1529,12 +1582,12 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="32"/>
+      <c r="D5" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="36"/>
       <c r="H5" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1544,15 +1597,19 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="27"/>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="10" t="s">
@@ -1568,31 +1625,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="28.5">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.5">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3">
@@ -1784,21 +1859,21 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:E5"/>
+    <sheetView topLeftCell="C3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="6"/>
-    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="126.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" style="6"/>
+    <col min="2" max="2" width="12.265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="126.265625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="6"/>
-    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="6"/>
+    <col min="6" max="6" width="16.59765625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.86328125" style="6"/>
+    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.86328125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
@@ -1806,33 +1881,33 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="H1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="H3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="J3" s="17">
         <v>234</v>
@@ -1840,17 +1915,17 @@
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="34"/>
       <c r="H4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>37</v>
+        <v>18</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>34</v>
       </c>
       <c r="J4" s="3">
         <v>234</v>
@@ -1858,12 +1933,12 @@
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+        <v>65</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
       <c r="H5" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1871,10 +1946,10 @@
     <row r="6" spans="1:10">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10">
@@ -1882,69 +1957,69 @@
         <v>4</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="195">
+    </row>
+    <row r="10" spans="1:10" ht="142.5">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="42.75">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="75">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="71.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -1953,16 +2028,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
@@ -1971,16 +2046,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2144,11 +2219,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="C32" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="C32" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>
